--- a/reports/Test.xlsx
+++ b/reports/Test.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee Name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -28,7 +31,25 @@
     <t>Out Time</t>
   </si>
   <si>
+    <t>Total Working Hour(In Seconds)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Divya  </t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:35:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:35:55 am</t>
   </si>
 </sst>
 </file>
@@ -405,14 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="5" width="15" customWidth="1"/>
+    <col min="1" max="2" width="32" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,60 +450,34 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Test.xlsx
+++ b/reports/Test.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Employee Name</t>
   </si>
@@ -31,25 +32,46 @@
     <t>Out Time</t>
   </si>
   <si>
-    <t>Total Working Hour(In Seconds)</t>
+    <t>Total Working Hour</t>
   </si>
   <si>
     <t xml:space="preserve">Divya  </t>
   </si>
   <si>
-    <t>27/07/2020</t>
-  </si>
-  <si>
-    <t>Monday</t>
+    <t>30/07/2020</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11:35:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:35:55 am</t>
+    <t xml:space="preserve"> 10:52:44 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:45:45 pm</t>
+  </si>
+  <si>
+    <t>8 hour and 53 minutes.</t>
+  </si>
+  <si>
+    <t>Memo Type</t>
+  </si>
+  <si>
+    <t>Start and End Date</t>
+  </si>
+  <si>
+    <t>Memo Accepted</t>
+  </si>
+  <si>
+    <t>Memo Disapproved</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>30/07/2020 - 30/07/2020</t>
   </si>
 </sst>
 </file>
@@ -476,8 +498,59 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>4</v>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Test.xlsx
+++ b/reports/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Employee Name</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">Divya  </t>
   </si>
   <si>
-    <t>30/07/2020</t>
-  </si>
-  <si>
-    <t>Thursday</t>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10:52:44 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:45:45 pm</t>
-  </si>
-  <si>
-    <t>8 hour and 53 minutes.</t>
+    <t xml:space="preserve"> 11:17:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:46:48 am</t>
+  </si>
+  <si>
+    <t>0 hour and 28 minutes.</t>
   </si>
   <si>
     <t>Memo Type</t>
@@ -71,7 +71,10 @@
     <t>in</t>
   </si>
   <si>
-    <t>30/07/2020 - 30/07/2020</t>
+    <t>28/07/2020 - 28/07/2020</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -550,7 +553,24 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
